--- a/Testy pobierania danych.xlsx
+++ b/Testy pobierania danych.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkolo\Desktop\API Dziewanna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkolo\Documents\GitHub\Testy-manualne-danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2C9C53-D423-445B-87A6-D58F7589BE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26E2987-967C-4B69-B37F-72133F298FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="39">
   <si>
     <t>LP</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Uwagi</t>
   </si>
   <si>
-    <t>http://nowaenergy.instrat.pl/wordpress/en/electrical-system-electricity-production-entsoe/</t>
-  </si>
-  <si>
     <t>ENTSO-E</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>POPRAWNE</t>
   </si>
   <si>
-    <t>http://nowaenergy.instrat.pl/wordpress/en/electrical-system-electricity-production-are/</t>
-  </si>
-  <si>
     <t>ARE</t>
   </si>
   <si>
@@ -81,24 +75,12 @@
     <t>LOAD</t>
   </si>
   <si>
-    <t>http://nowaenergy.instrat.pl/wordpress/en/electrical-system-load/</t>
-  </si>
-  <si>
     <t>ENTSO-E capacity</t>
   </si>
   <si>
-    <t>http://nowaenergy.instrat.pl/wordpress/en/electrical-system-generation-capacity-entsoe/</t>
-  </si>
-  <si>
     <t>ARE capacity</t>
   </si>
   <si>
-    <t>http://nowaenergy.instrat.pl/wordpress/en/electrical-system-generation-capacity-are/</t>
-  </si>
-  <si>
-    <t>http://nowaenergy.instrat.pl/wordpress/en/prices-electricity-dam/</t>
-  </si>
-  <si>
     <t>Price electricity DAM</t>
   </si>
   <si>
@@ -108,39 +90,24 @@
     <t>DAM hourly</t>
   </si>
   <si>
-    <t>http://nowaenergy.instrat.pl/wordpress/en/prices-electricity-dam-hourly/#</t>
-  </si>
-  <si>
     <t>BŁĄD W FORMACIE GODZINY W EXCELU W CHROME I EDGE</t>
   </si>
   <si>
     <t>BŁĄD W FORMACIE GODZINY W CSV W CHROME I EDGE</t>
   </si>
   <si>
-    <t>http://nowaenergy.instrat.pl/wordpress/en/prices-gas-dam/</t>
-  </si>
-  <si>
     <t>DAMgas</t>
   </si>
   <si>
-    <t>http://nowaenergy.instrat.pl/wordpress/en/prices-pscmi1/</t>
-  </si>
-  <si>
     <t>PSCMI 1</t>
   </si>
   <si>
     <t>PSCMI 2</t>
   </si>
   <si>
-    <t>http://nowaenergy.instrat.pl/wordpress/en/prices-pscmi2/</t>
-  </si>
-  <si>
     <t>CO2 emission</t>
   </si>
   <si>
-    <t>http://nowaenergy.instrat.pl/wordpress/en/prices-eu-ets/#</t>
-  </si>
-  <si>
     <t>BŁĘDNY FORMAT GODZINY W EDGE I CHROME</t>
   </si>
   <si>
@@ -150,15 +117,9 @@
     <t>Sales hard coal</t>
   </si>
   <si>
-    <t>http://nowaenergy.instrat.pl/wordpress/en/mining-production-sales-hard-coal/#</t>
-  </si>
-  <si>
     <t>Employment</t>
   </si>
   <si>
-    <t>http://nowaenergy.instrat.pl/wordpress/en/mining-employment-hard-coal/#</t>
-  </si>
-  <si>
     <t>W LINII, JEDNAKŻE SĄ ZBĘDNE GODZINY, A BRAKUJE DANYCH LICZBOWYCH</t>
   </si>
   <si>
@@ -168,9 +129,6 @@
     <t>Reserves</t>
   </si>
   <si>
-    <t>http://nowaenergy.instrat.pl/wordpress/en/mining-hard-coal-reserves/</t>
-  </si>
-  <si>
     <t>WYSTEPUJĄ DANE GODZINOWE</t>
   </si>
   <si>
@@ -181,6 +139,9 @@
   </si>
   <si>
     <t>DANE GODZINOWE WYSTĘPUJĄ W CHROME I EDGE</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -852,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -902,25 +863,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="I2" s="12"/>
     </row>
@@ -929,25 +890,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="14"/>
     </row>
@@ -956,25 +917,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="I4" s="14"/>
     </row>
@@ -983,25 +944,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="14"/>
     </row>
@@ -1010,25 +971,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="20"/>
     </row>
@@ -1048,28 +1009,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="28" t="s">
         <v>28</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1077,28 +1038,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
       <c r="I9" s="29" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1106,28 +1067,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H10" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="29" t="s">
         <v>28</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1135,28 +1096,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1164,28 +1125,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1193,28 +1154,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1233,28 +1194,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
@@ -1262,28 +1223,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -1291,34 +1252,34 @@
         <v>15</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>16</v>
       </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1348,19 +1309,19 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{79486849-FCBE-413B-9C86-037B4DCF4066}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{DC08939D-0EE8-43CA-AE90-9B6D4670EDCE}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{EBFBE8E3-6F4A-4875-B285-590D73462E81}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{E2E10085-36A2-4E88-A436-DBBE3AF161EB}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{78DDE027-8044-4C8A-8B10-FA16E2306C88}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{13753E7F-CC26-4E50-8849-F17E55897615}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{56F06F95-2FBB-4936-9F9A-65CB15485500}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{284D24FF-C793-4166-8630-9ADBF12D9F72}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{2A3B20EA-EAEE-4DD3-B2ED-068958A5564B}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{5D979DB0-DDF3-47E9-ACA1-9E3338972FE1}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{EC674B41-650C-4243-B4FC-E0BF50575D31}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{3B60AE67-8BD3-41E3-8DB4-4109B2E9802D}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{93E1810B-C590-49F0-BB6F-B50C9EF95018}"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://nowaenergy.instrat.pl/wordpress/en/electrical-system-electricity-production-entsoe/" xr:uid="{79486849-FCBE-413B-9C86-037B4DCF4066}"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://nowaenergy.instrat.pl/wordpress/en/electrical-system-electricity-production-are/" xr:uid="{DC08939D-0EE8-43CA-AE90-9B6D4670EDCE}"/>
+    <hyperlink ref="D4" r:id="rId3" display="http://nowaenergy.instrat.pl/wordpress/en/electrical-system-load/" xr:uid="{EBFBE8E3-6F4A-4875-B285-590D73462E81}"/>
+    <hyperlink ref="D5" r:id="rId4" display="http://nowaenergy.instrat.pl/wordpress/en/electrical-system-generation-capacity-entsoe/" xr:uid="{E2E10085-36A2-4E88-A436-DBBE3AF161EB}"/>
+    <hyperlink ref="D6" r:id="rId5" display="http://nowaenergy.instrat.pl/wordpress/en/electrical-system-generation-capacity-are/" xr:uid="{78DDE027-8044-4C8A-8B10-FA16E2306C88}"/>
+    <hyperlink ref="D8" r:id="rId6" display="http://nowaenergy.instrat.pl/wordpress/en/prices-electricity-dam/" xr:uid="{13753E7F-CC26-4E50-8849-F17E55897615}"/>
+    <hyperlink ref="D9" r:id="rId7" display="http://nowaenergy.instrat.pl/wordpress/en/prices-electricity-dam-hourly/#" xr:uid="{56F06F95-2FBB-4936-9F9A-65CB15485500}"/>
+    <hyperlink ref="D10" r:id="rId8" display="http://nowaenergy.instrat.pl/wordpress/en/prices-gas-dam/" xr:uid="{284D24FF-C793-4166-8630-9ADBF12D9F72}"/>
+    <hyperlink ref="D11" r:id="rId9" display="http://nowaenergy.instrat.pl/wordpress/en/prices-pscmi1/" xr:uid="{2A3B20EA-EAEE-4DD3-B2ED-068958A5564B}"/>
+    <hyperlink ref="D12" r:id="rId10" display="http://nowaenergy.instrat.pl/wordpress/en/prices-pscmi2/" xr:uid="{5D979DB0-DDF3-47E9-ACA1-9E3338972FE1}"/>
+    <hyperlink ref="D13" r:id="rId11" display="http://nowaenergy.instrat.pl/wordpress/en/prices-eu-ets/#" xr:uid="{EC674B41-650C-4243-B4FC-E0BF50575D31}"/>
+    <hyperlink ref="D15" r:id="rId12" display="http://nowaenergy.instrat.pl/wordpress/en/mining-production-sales-hard-coal/#" xr:uid="{3B60AE67-8BD3-41E3-8DB4-4109B2E9802D}"/>
+    <hyperlink ref="D16" r:id="rId13" display="http://nowaenergy.instrat.pl/wordpress/en/mining-employment-hard-coal/#" xr:uid="{93E1810B-C590-49F0-BB6F-B50C9EF95018}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
